--- a/testData/Cab_Booking_Data.xlsx
+++ b/testData/Cab_Booking_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="52">
   <si>
     <t>Lowest Price Cab(One Way Outstation)</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>₹ 8,918</t>
+  </si>
+  <si>
+    <t>₹ 9,720</t>
   </si>
 </sst>
 </file>
